--- a/pred_ohlcv/54_21/2019-10-21 BCH ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-21 BCH ohlcv.xlsx
@@ -626,7 +626,7 @@
         <v>169.2776</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>291.6788</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>472.1712</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -19216,7 +19216,7 @@
         <v>2266.119944160001</v>
       </c>
       <c r="H724">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="725" spans="1:8">
@@ -19242,7 +19242,7 @@
         <v>2592.372844160001</v>
       </c>
       <c r="H725">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="726" spans="1:8">
@@ -19268,7 +19268,7 @@
         <v>2911.456344160001</v>
       </c>
       <c r="H726">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="727" spans="1:8">
@@ -19294,7 +19294,7 @@
         <v>2734.655044160001</v>
       </c>
       <c r="H727">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="728" spans="1:8">
@@ -19320,7 +19320,7 @@
         <v>2734.655044160001</v>
       </c>
       <c r="H728">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="729" spans="1:8">
@@ -19346,7 +19346,7 @@
         <v>2664.031444160001</v>
       </c>
       <c r="H729">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="730" spans="1:8">
@@ -19372,7 +19372,7 @@
         <v>2901.383044160001</v>
       </c>
       <c r="H730">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="731" spans="1:8">
@@ -19398,7 +19398,7 @@
         <v>2954.472944160001</v>
       </c>
       <c r="H731">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="732" spans="1:8">
@@ -19424,7 +19424,7 @@
         <v>3078.397436330001</v>
       </c>
       <c r="H732">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="733" spans="1:8">
@@ -19450,7 +19450,7 @@
         <v>3086.797636330001</v>
       </c>
       <c r="H733">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="734" spans="1:8">
@@ -19476,7 +19476,7 @@
         <v>3171.352536330001</v>
       </c>
       <c r="H734">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="735" spans="1:8">
@@ -19502,7 +19502,7 @@
         <v>3171.352536330001</v>
       </c>
       <c r="H735">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="736" spans="1:8">
@@ -19528,7 +19528,7 @@
         <v>3150.732236330001</v>
       </c>
       <c r="H736">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="737" spans="1:8">
@@ -19554,7 +19554,7 @@
         <v>3219.974736330001</v>
       </c>
       <c r="H737">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="738" spans="1:8">
@@ -19658,7 +19658,7 @@
         <v>3111.411636330001</v>
       </c>
       <c r="H741">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="742" spans="1:8">
@@ -19684,7 +19684,7 @@
         <v>3025.861736330001</v>
       </c>
       <c r="H742">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="743" spans="1:8">
@@ -19710,7 +19710,7 @@
         <v>3052.775136330001</v>
       </c>
       <c r="H743">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="744" spans="1:8">
@@ -19736,7 +19736,7 @@
         <v>2977.347436330001</v>
       </c>
       <c r="H744">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="745" spans="1:8">
@@ -19762,7 +19762,7 @@
         <v>3033.108936330001</v>
       </c>
       <c r="H745">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="746" spans="1:8">
@@ -19788,7 +19788,7 @@
         <v>3033.108936330001</v>
       </c>
       <c r="H746">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="747" spans="1:8">
@@ -19814,7 +19814,7 @@
         <v>3192.29903633</v>
       </c>
       <c r="H747">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="748" spans="1:8">
@@ -19840,7 +19840,7 @@
         <v>3532.77363633</v>
       </c>
       <c r="H748">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="749" spans="1:8">
@@ -19866,7 +19866,7 @@
         <v>4112.047436330001</v>
       </c>
       <c r="H749">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="750" spans="1:8">
@@ -19892,7 +19892,7 @@
         <v>3833.982013920001</v>
       </c>
       <c r="H750">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="751" spans="1:8">
@@ -19918,7 +19918,7 @@
         <v>3545.115402760001</v>
       </c>
       <c r="H751">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="752" spans="1:8">
@@ -19970,7 +19970,7 @@
         <v>3944.033902760001</v>
       </c>
       <c r="H753">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="754" spans="1:8">
@@ -19996,7 +19996,7 @@
         <v>3902.612702760001</v>
       </c>
       <c r="H754">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="755" spans="1:8">
@@ -20022,7 +20022,7 @@
         <v>3926.65360276</v>
       </c>
       <c r="H755">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="756" spans="1:8">
@@ -20048,7 +20048,7 @@
         <v>3797.06560276</v>
       </c>
       <c r="H756">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="757" spans="1:8">
@@ -20074,7 +20074,7 @@
         <v>3826.69410646</v>
       </c>
       <c r="H757">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="758" spans="1:8">
@@ -20100,7 +20100,7 @@
         <v>3843.62850646</v>
       </c>
       <c r="H758">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="759" spans="1:8">
@@ -20126,7 +20126,7 @@
         <v>3918.72150646</v>
       </c>
       <c r="H759">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="760" spans="1:8">
@@ -20152,7 +20152,7 @@
         <v>3937.94430646</v>
       </c>
       <c r="H760">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="761" spans="1:8">
@@ -20178,7 +20178,7 @@
         <v>3763.40510646</v>
       </c>
       <c r="H761">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="762" spans="1:8">
@@ -20204,7 +20204,7 @@
         <v>3979.95140646</v>
       </c>
       <c r="H762">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="763" spans="1:8">
@@ -20230,7 +20230,7 @@
         <v>3673.81590646</v>
       </c>
       <c r="H763">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="764" spans="1:8">
@@ -20256,7 +20256,7 @@
         <v>3608.26960646</v>
       </c>
       <c r="H764">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="765" spans="1:8">
@@ -20282,7 +20282,7 @@
         <v>3496.58430646</v>
       </c>
       <c r="H765">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="766" spans="1:8">
@@ -20308,7 +20308,7 @@
         <v>3363.80930646</v>
       </c>
       <c r="H766">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="767" spans="1:8">
@@ -20334,7 +20334,7 @@
         <v>3209.09990646</v>
       </c>
       <c r="H767">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="768" spans="1:8">
@@ -20360,7 +20360,7 @@
         <v>3155.538832239999</v>
       </c>
       <c r="H768">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="769" spans="1:8">
@@ -20412,7 +20412,7 @@
         <v>3230.210032239999</v>
       </c>
       <c r="H770">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="771" spans="1:8">
@@ -20438,7 +20438,7 @@
         <v>3267.060132239999</v>
       </c>
       <c r="H771">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="772" spans="1:8">
@@ -20464,7 +20464,7 @@
         <v>3266.543732239999</v>
       </c>
       <c r="H772">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="773" spans="1:8">
@@ -20490,7 +20490,7 @@
         <v>3237.294132239999</v>
       </c>
       <c r="H773">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="774" spans="1:8">
@@ -20516,7 +20516,7 @@
         <v>3258.290732239999</v>
       </c>
       <c r="H774">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="775" spans="1:8">
@@ -20542,7 +20542,7 @@
         <v>3276.249732239999</v>
       </c>
       <c r="H775">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="776" spans="1:8">
@@ -20568,7 +20568,7 @@
         <v>3276.249732239999</v>
       </c>
       <c r="H776">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="777" spans="1:8">
@@ -20594,7 +20594,7 @@
         <v>3212.327532239999</v>
       </c>
       <c r="H777">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="778" spans="1:8">
@@ -20620,7 +20620,7 @@
         <v>3245.166132239999</v>
       </c>
       <c r="H778">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="779" spans="1:8">
@@ -20646,7 +20646,7 @@
         <v>3241.914832239999</v>
       </c>
       <c r="H779">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="780" spans="1:8">
@@ -20672,7 +20672,7 @@
         <v>3261.476732239999</v>
       </c>
       <c r="H780">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="781" spans="1:8">
@@ -20698,7 +20698,7 @@
         <v>3259.476732239999</v>
       </c>
       <c r="H781">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="782" spans="1:8">
@@ -20724,7 +20724,7 @@
         <v>3279.476732239999</v>
       </c>
       <c r="H782">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="783" spans="1:8">
@@ -20750,7 +20750,7 @@
         <v>3279.476732239999</v>
       </c>
       <c r="H783">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="784" spans="1:8">
@@ -20776,7 +20776,7 @@
         <v>3264.88353224</v>
       </c>
       <c r="H784">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="785" spans="1:8">
@@ -20802,7 +20802,7 @@
         <v>3293.18523224</v>
       </c>
       <c r="H785">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="786" spans="1:8">
@@ -20828,7 +20828,7 @@
         <v>3319.03233224</v>
       </c>
       <c r="H786">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="787" spans="1:8">
@@ -20854,7 +20854,7 @@
         <v>3319.03233224</v>
       </c>
       <c r="H787">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="788" spans="1:8">
@@ -20880,7 +20880,7 @@
         <v>3319.03233224</v>
       </c>
       <c r="H788">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="789" spans="1:8">
@@ -20906,7 +20906,7 @@
         <v>3343.87343224</v>
       </c>
       <c r="H789">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="790" spans="1:8">
@@ -20932,7 +20932,7 @@
         <v>3340.04053224</v>
       </c>
       <c r="H790">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="791" spans="1:8">
@@ -20958,7 +20958,7 @@
         <v>3340.18656989</v>
       </c>
       <c r="H791">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="792" spans="1:8">
@@ -20984,7 +20984,7 @@
         <v>3313.18656989</v>
       </c>
       <c r="H792">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="793" spans="1:8">
@@ -21010,7 +21010,7 @@
         <v>3306.97056989</v>
       </c>
       <c r="H793">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="794" spans="1:8">
@@ -21036,7 +21036,7 @@
         <v>3282.46976989</v>
       </c>
       <c r="H794">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="795" spans="1:8">
@@ -21062,7 +21062,7 @@
         <v>3336.70406989</v>
       </c>
       <c r="H795">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="796" spans="1:8">
@@ -21088,7 +21088,7 @@
         <v>3230.93876989</v>
       </c>
       <c r="H796">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="797" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-21 BCH ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-21 BCH ohlcv.xlsx
@@ -730,7 +730,7 @@
         <v>527.8996999999999</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -19216,7 +19216,7 @@
         <v>2266.119944160001</v>
       </c>
       <c r="H724">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="725" spans="1:8">
@@ -19242,7 +19242,7 @@
         <v>2592.372844160001</v>
       </c>
       <c r="H725">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="726" spans="1:8">
@@ -19268,7 +19268,7 @@
         <v>2911.456344160001</v>
       </c>
       <c r="H726">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="727" spans="1:8">
@@ -19294,7 +19294,7 @@
         <v>2734.655044160001</v>
       </c>
       <c r="H727">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="728" spans="1:8">
@@ -19320,7 +19320,7 @@
         <v>2734.655044160001</v>
       </c>
       <c r="H728">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="729" spans="1:8">
@@ -19346,7 +19346,7 @@
         <v>2664.031444160001</v>
       </c>
       <c r="H729">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="730" spans="1:8">
@@ -19372,7 +19372,7 @@
         <v>2901.383044160001</v>
       </c>
       <c r="H730">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="731" spans="1:8">
@@ -19398,7 +19398,7 @@
         <v>2954.472944160001</v>
       </c>
       <c r="H731">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="732" spans="1:8">
@@ -19424,7 +19424,7 @@
         <v>3078.397436330001</v>
       </c>
       <c r="H732">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="733" spans="1:8">
@@ -19450,7 +19450,7 @@
         <v>3086.797636330001</v>
       </c>
       <c r="H733">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="734" spans="1:8">
@@ -19476,7 +19476,7 @@
         <v>3171.352536330001</v>
       </c>
       <c r="H734">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="735" spans="1:8">
@@ -19502,7 +19502,7 @@
         <v>3171.352536330001</v>
       </c>
       <c r="H735">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="736" spans="1:8">
@@ -19528,7 +19528,7 @@
         <v>3150.732236330001</v>
       </c>
       <c r="H736">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="737" spans="1:8">
@@ -19554,7 +19554,7 @@
         <v>3219.974736330001</v>
       </c>
       <c r="H737">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="738" spans="1:8">
@@ -19658,7 +19658,7 @@
         <v>3111.411636330001</v>
       </c>
       <c r="H741">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="742" spans="1:8">
@@ -19684,7 +19684,7 @@
         <v>3025.861736330001</v>
       </c>
       <c r="H742">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="743" spans="1:8">
@@ -19710,7 +19710,7 @@
         <v>3052.775136330001</v>
       </c>
       <c r="H743">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="744" spans="1:8">
@@ -19736,7 +19736,7 @@
         <v>2977.347436330001</v>
       </c>
       <c r="H744">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="745" spans="1:8">
@@ -19762,7 +19762,7 @@
         <v>3033.108936330001</v>
       </c>
       <c r="H745">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="746" spans="1:8">
@@ -19788,7 +19788,7 @@
         <v>3033.108936330001</v>
       </c>
       <c r="H746">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="747" spans="1:8">
@@ -19814,7 +19814,7 @@
         <v>3192.29903633</v>
       </c>
       <c r="H747">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="748" spans="1:8">
@@ -19840,7 +19840,7 @@
         <v>3532.77363633</v>
       </c>
       <c r="H748">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="749" spans="1:8">
@@ -19866,7 +19866,7 @@
         <v>4112.047436330001</v>
       </c>
       <c r="H749">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="750" spans="1:8">
@@ -19892,7 +19892,7 @@
         <v>3833.982013920001</v>
       </c>
       <c r="H750">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="751" spans="1:8">
@@ -19918,7 +19918,7 @@
         <v>3545.115402760001</v>
       </c>
       <c r="H751">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="752" spans="1:8">
@@ -19996,7 +19996,7 @@
         <v>3902.612702760001</v>
       </c>
       <c r="H754">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="755" spans="1:8">
@@ -20022,7 +20022,7 @@
         <v>3926.65360276</v>
       </c>
       <c r="H755">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="756" spans="1:8">
@@ -20048,7 +20048,7 @@
         <v>3797.06560276</v>
       </c>
       <c r="H756">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="757" spans="1:8">
@@ -20074,7 +20074,7 @@
         <v>3826.69410646</v>
       </c>
       <c r="H757">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="758" spans="1:8">
@@ -20100,7 +20100,7 @@
         <v>3843.62850646</v>
       </c>
       <c r="H758">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="759" spans="1:8">
@@ -20126,7 +20126,7 @@
         <v>3918.72150646</v>
       </c>
       <c r="H759">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="760" spans="1:8">
@@ -20152,7 +20152,7 @@
         <v>3937.94430646</v>
       </c>
       <c r="H760">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="761" spans="1:8">
@@ -20178,7 +20178,7 @@
         <v>3763.40510646</v>
       </c>
       <c r="H761">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="762" spans="1:8">
@@ -20204,7 +20204,7 @@
         <v>3979.95140646</v>
       </c>
       <c r="H762">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="763" spans="1:8">
@@ -20230,7 +20230,7 @@
         <v>3673.81590646</v>
       </c>
       <c r="H763">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="764" spans="1:8">
@@ -20256,7 +20256,7 @@
         <v>3608.26960646</v>
       </c>
       <c r="H764">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="765" spans="1:8">
@@ -20282,7 +20282,7 @@
         <v>3496.58430646</v>
       </c>
       <c r="H765">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="766" spans="1:8">
@@ -20308,7 +20308,7 @@
         <v>3363.80930646</v>
       </c>
       <c r="H766">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="767" spans="1:8">
@@ -20334,7 +20334,7 @@
         <v>3209.09990646</v>
       </c>
       <c r="H767">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="768" spans="1:8">
@@ -20360,7 +20360,7 @@
         <v>3155.538832239999</v>
       </c>
       <c r="H768">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="769" spans="1:8">
@@ -20412,7 +20412,7 @@
         <v>3230.210032239999</v>
       </c>
       <c r="H770">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="771" spans="1:8">
@@ -20438,7 +20438,7 @@
         <v>3267.060132239999</v>
       </c>
       <c r="H771">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="772" spans="1:8">
@@ -20464,7 +20464,7 @@
         <v>3266.543732239999</v>
       </c>
       <c r="H772">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="773" spans="1:8">
@@ -20490,7 +20490,7 @@
         <v>3237.294132239999</v>
       </c>
       <c r="H773">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="774" spans="1:8">
@@ -20516,7 +20516,7 @@
         <v>3258.290732239999</v>
       </c>
       <c r="H774">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="775" spans="1:8">
@@ -20542,7 +20542,7 @@
         <v>3276.249732239999</v>
       </c>
       <c r="H775">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="776" spans="1:8">
@@ -20568,7 +20568,7 @@
         <v>3276.249732239999</v>
       </c>
       <c r="H776">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="777" spans="1:8">
@@ -20594,7 +20594,7 @@
         <v>3212.327532239999</v>
       </c>
       <c r="H777">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="778" spans="1:8">
@@ -20620,7 +20620,7 @@
         <v>3245.166132239999</v>
       </c>
       <c r="H778">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="779" spans="1:8">
@@ -20646,7 +20646,7 @@
         <v>3241.914832239999</v>
       </c>
       <c r="H779">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="780" spans="1:8">
@@ -20672,7 +20672,7 @@
         <v>3261.476732239999</v>
       </c>
       <c r="H780">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="781" spans="1:8">
@@ -20698,7 +20698,7 @@
         <v>3259.476732239999</v>
       </c>
       <c r="H781">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="782" spans="1:8">
@@ -20724,7 +20724,7 @@
         <v>3279.476732239999</v>
       </c>
       <c r="H782">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="783" spans="1:8">
@@ -20750,7 +20750,7 @@
         <v>3279.476732239999</v>
       </c>
       <c r="H783">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="784" spans="1:8">
@@ -20776,7 +20776,7 @@
         <v>3264.88353224</v>
       </c>
       <c r="H784">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="785" spans="1:8">
@@ -20802,7 +20802,7 @@
         <v>3293.18523224</v>
       </c>
       <c r="H785">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="786" spans="1:8">
@@ -20828,7 +20828,7 @@
         <v>3319.03233224</v>
       </c>
       <c r="H786">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="787" spans="1:8">
@@ -20854,7 +20854,7 @@
         <v>3319.03233224</v>
       </c>
       <c r="H787">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="788" spans="1:8">
@@ -20880,7 +20880,7 @@
         <v>3319.03233224</v>
       </c>
       <c r="H788">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="789" spans="1:8">
@@ -20906,7 +20906,7 @@
         <v>3343.87343224</v>
       </c>
       <c r="H789">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="790" spans="1:8">
@@ -20932,7 +20932,7 @@
         <v>3340.04053224</v>
       </c>
       <c r="H790">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="791" spans="1:8">
@@ -20958,7 +20958,7 @@
         <v>3340.18656989</v>
       </c>
       <c r="H791">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="792" spans="1:8">
@@ -20984,7 +20984,7 @@
         <v>3313.18656989</v>
       </c>
       <c r="H792">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="793" spans="1:8">
@@ -21010,7 +21010,7 @@
         <v>3306.97056989</v>
       </c>
       <c r="H793">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="794" spans="1:8">
@@ -21036,7 +21036,7 @@
         <v>3282.46976989</v>
       </c>
       <c r="H794">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="795" spans="1:8">
@@ -21062,7 +21062,7 @@
         <v>3336.70406989</v>
       </c>
       <c r="H795">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="796" spans="1:8">
@@ -21088,7 +21088,7 @@
         <v>3230.93876989</v>
       </c>
       <c r="H796">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="797" spans="1:8">
@@ -21114,7 +21114,7 @@
         <v>3230.94876259</v>
       </c>
       <c r="H797">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="798" spans="1:8">
@@ -21140,7 +21140,7 @@
         <v>3195.36016259</v>
       </c>
       <c r="H798">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="799" spans="1:8">
